--- a/dicionario_dados/Dicionario de dados.xlsx
+++ b/dicionario_dados/Dicionario de dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07e0eb112c907da7/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{B19F7C43-F866-414A-B816-96F578083025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C235AD7A-A9F0-41F1-897F-93C80B1771F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8870E-0435-4071-9055-76C63AF395C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4500" yWindow="1770" windowWidth="15375" windowHeight="7785" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="250">
   <si>
     <t>Tabela</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Colunas</t>
   </si>
   <si>
-    <t>cd_avaliacao, dt_avaliacao</t>
-  </si>
-  <si>
     <t>Valor min e max</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Nome do índice</t>
   </si>
   <si>
-    <t>Idx_dt_avaliacao</t>
-  </si>
-  <si>
     <t>Clientes</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>Nome do cliente</t>
   </si>
   <si>
-    <t xml:space="preserve">Nome </t>
-  </si>
-  <si>
     <t>varchar(100)</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>14 - 14</t>
-  </si>
-  <si>
     <t>email do cliente</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
     <t>data do cadastro do cliente</t>
   </si>
   <si>
-    <t>01 - 15'</t>
-  </si>
-  <si>
     <t>data_cadastro</t>
   </si>
   <si>
@@ -173,12 +158,6 @@
     <t>Código de identificador do celular</t>
   </si>
   <si>
-    <t>Código do cliente associado</t>
-  </si>
-  <si>
-    <t>Código da marca do celular</t>
-  </si>
-  <si>
     <t>marca_id</t>
   </si>
   <si>
@@ -191,9 +170,6 @@
     <t>varchar(50)</t>
   </si>
   <si>
-    <t>1 - 50'</t>
-  </si>
-  <si>
     <t>Tabela responsavel por armazenar as informações dos celulares assegurados</t>
   </si>
   <si>
@@ -203,9 +179,6 @@
     <t xml:space="preserve">varchar(20) </t>
   </si>
   <si>
-    <t>15 - 20</t>
-  </si>
-  <si>
     <t>Imei único do celular</t>
   </si>
   <si>
@@ -222,13 +195,604 @@
   </si>
   <si>
     <t xml:space="preserve">Tabela responsavel por armazenar as marcas de celular utilizadas na tabela celular </t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>nome da marca</t>
+  </si>
+  <si>
+    <t>Planos</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os planos do seguro</t>
+  </si>
+  <si>
+    <t>plano_id</t>
+  </si>
+  <si>
+    <t>Código identificador da marca do celular</t>
+  </si>
+  <si>
+    <t>Código de identificação do plano</t>
+  </si>
+  <si>
+    <t>nome_plano</t>
+  </si>
+  <si>
+    <t>nome da plano</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>valor_mensal</t>
+  </si>
+  <si>
+    <t>Descrição do plano</t>
+  </si>
+  <si>
+    <t>valor mensal do plano</t>
+  </si>
+  <si>
+    <t>Coberturas</t>
+  </si>
+  <si>
+    <t>Apolices</t>
+  </si>
+  <si>
+    <t>Detalhes_Apolices</t>
+  </si>
+  <si>
+    <t>Status_Apolice</t>
+  </si>
+  <si>
+    <t>Pagamentos</t>
+  </si>
+  <si>
+    <t>Status_Pagamentos</t>
+  </si>
+  <si>
+    <t>Metodo_pagamento</t>
+  </si>
+  <si>
+    <t>Sinistro</t>
+  </si>
+  <si>
+    <t>Tipos_Ocorrencia</t>
+  </si>
+  <si>
+    <t>Status_Sinistros</t>
+  </si>
+  <si>
+    <t>Atendimentos</t>
+  </si>
+  <si>
+    <t>Tipos_Contato_Atendimento</t>
+  </si>
+  <si>
+    <t>Atendentes</t>
+  </si>
+  <si>
+    <t>Cargos</t>
+  </si>
+  <si>
+    <t>cobertura_id</t>
+  </si>
+  <si>
+    <t>FK referente a cliente_id de Clientes</t>
+  </si>
+  <si>
+    <t>FK referente a marca_id de Marcas</t>
+  </si>
+  <si>
+    <t>FK  referente a plano_id de Planos</t>
+  </si>
+  <si>
+    <t>Descrição detalhada da cobertura</t>
+  </si>
+  <si>
+    <t>apolice_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>FK  referente a celular_id de Celulares</t>
+  </si>
+  <si>
+    <t>FK  referente a cliente_id Clientes</t>
+  </si>
+  <si>
+    <t>FK referente a apolice_id de Apolices</t>
+  </si>
+  <si>
+    <t>data_inicio</t>
+  </si>
+  <si>
+    <t>Data de inicio da validade de apolice</t>
+  </si>
+  <si>
+    <t>Data de termino de validade de apolice</t>
+  </si>
+  <si>
+    <t>data_fim</t>
+  </si>
+  <si>
+    <t>status_apolice_id</t>
+  </si>
+  <si>
+    <t>FK referente a status_apolice_id de Status_Apolice</t>
+  </si>
+  <si>
+    <t>Código identificador de coberturas</t>
+  </si>
+  <si>
+    <t>Código de identificação da apolice</t>
+  </si>
+  <si>
+    <t>nome_status</t>
+  </si>
+  <si>
+    <t>nome descritivo dos status da apolice</t>
+  </si>
+  <si>
+    <t>pagamanto_id</t>
+  </si>
+  <si>
+    <t>data_pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data em que pagamento foi efetuado </t>
+  </si>
+  <si>
+    <t>valor_pago</t>
+  </si>
+  <si>
+    <t>valor monetario do pagamento</t>
+  </si>
+  <si>
+    <t>status_pagamentos_id</t>
+  </si>
+  <si>
+    <t>FK referente a status_pagamentos_id de Status_Pagamentos</t>
+  </si>
+  <si>
+    <t>metodo_de_pagamento_id</t>
+  </si>
+  <si>
+    <t>FK referente a metodo_pagamentos_id de Metodo_Pagamento</t>
+  </si>
+  <si>
+    <t>Código de identificação do pagamentos</t>
+  </si>
+  <si>
+    <t>Código de identificação do status de pagamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nome </t>
+  </si>
+  <si>
+    <t>nome descritivo dos status da pagamentos</t>
+  </si>
+  <si>
+    <t>metodo_pagamento_id</t>
+  </si>
+  <si>
+    <t>Código de identificação do metodo de pagamento</t>
+  </si>
+  <si>
+    <t>Nome descritivo do método de pagamento</t>
+  </si>
+  <si>
+    <t>sinistro_id</t>
+  </si>
+  <si>
+    <t>data_ocorrencia</t>
+  </si>
+  <si>
+    <t>tipo_ocorrencia_id</t>
+  </si>
+  <si>
+    <t>status_sinistro_id</t>
+  </si>
+  <si>
+    <t>Código de identificação do sinistro</t>
+  </si>
+  <si>
+    <t>FK referente a apolice_id de apolices</t>
+  </si>
+  <si>
+    <t>data que ocorreu o sinistro</t>
+  </si>
+  <si>
+    <t>FK referente a tipo_ocorrencia_id de Tipos_Ocorrencia</t>
+  </si>
+  <si>
+    <t>descrição detalhada do sinistra</t>
+  </si>
+  <si>
+    <t>FK referente a status_sinistro_id de Status_Sinistro</t>
+  </si>
+  <si>
+    <t>nome_tipo</t>
+  </si>
+  <si>
+    <t>nome descritivo do tipo de ocorrencia</t>
+  </si>
+  <si>
+    <t>Código identificador do status do sinistro</t>
+  </si>
+  <si>
+    <t>Código identificador do tipo de ocorrencia</t>
+  </si>
+  <si>
+    <t>nome descritivo do status do sinistro</t>
+  </si>
+  <si>
+    <t>atendimento_id</t>
+  </si>
+  <si>
+    <t>Código de indentificação dos atendimentos</t>
+  </si>
+  <si>
+    <t>atendente_id</t>
+  </si>
+  <si>
+    <t>data_atendimento</t>
+  </si>
+  <si>
+    <t>tipo_contato_id</t>
+  </si>
+  <si>
+    <t>assunto</t>
+  </si>
+  <si>
+    <t>FK referente a atendente_id de atendente</t>
+  </si>
+  <si>
+    <t>Data que ocorreu o atendimento</t>
+  </si>
+  <si>
+    <t>FK referente a tipo_contato_id de Tipo_Contato_Atendimento</t>
+  </si>
+  <si>
+    <t>assunto de atendimentos</t>
+  </si>
+  <si>
+    <t>observacoes</t>
+  </si>
+  <si>
+    <t>detalhes sobre o atendimento</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os detalhes das coberturas de cada plano</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os estados do status da apolice</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os dados dos pagamentos</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os estados do status dos pagamentos</t>
+  </si>
+  <si>
+    <t>tipos_contato_id</t>
+  </si>
+  <si>
+    <t>Código identificador do tipo de contato</t>
+  </si>
+  <si>
+    <t>Código de identificação dos atendentes</t>
+  </si>
+  <si>
+    <t>email_atendente</t>
+  </si>
+  <si>
+    <t>nome_atendente</t>
+  </si>
+  <si>
+    <t>nome do atendente</t>
+  </si>
+  <si>
+    <t>email do atendente</t>
+  </si>
+  <si>
+    <t>telefone_atendente</t>
+  </si>
+  <si>
+    <t>cargo_id</t>
+  </si>
+  <si>
+    <t>data_admissao</t>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+  </si>
+  <si>
+    <t>telefone do atendente</t>
+  </si>
+  <si>
+    <t>cargo de atendente</t>
+  </si>
+  <si>
+    <t>data de admissão do atendente</t>
+  </si>
+  <si>
+    <t>nome_cargo</t>
+  </si>
+  <si>
+    <t>Código identificador de cargo</t>
+  </si>
+  <si>
+    <t>descricao_cargo</t>
+  </si>
+  <si>
+    <t>Descrição do cargo</t>
+  </si>
+  <si>
+    <t>nome do cargo</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar nome e uma descrição para cada cargo.</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os dados de cada atendentes</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os tipos de contatos de atendimentos</t>
+  </si>
+  <si>
+    <t>nome do tipo do contato do atendimento</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os detalhes de cada atendimento</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os estados do status dos sinistros</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar nomes dos tipos de ocorrencia</t>
+  </si>
+  <si>
+    <t>Tabela responsavel por armazenar os detlhes do sinistro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela responsavel por armazenar os nomes dos metodos de pagamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabela responsavel por armazenar os detalhes da validade da apolice </t>
+  </si>
+  <si>
+    <t>Tabela responsavel por conectar um cliente, celular e um plano de seguro</t>
+  </si>
+  <si>
+    <t>PK_Clientes</t>
+  </si>
+  <si>
+    <t>idx_clientes_nome</t>
+  </si>
+  <si>
+    <t>UQ_Clientes_cpf</t>
+  </si>
+  <si>
+    <t>idx_clientes_email</t>
+  </si>
+  <si>
+    <t>idx_clientes_telefone</t>
+  </si>
+  <si>
+    <t>PK_Celulares</t>
+  </si>
+  <si>
+    <t>UQ_Celulares_imei</t>
+  </si>
+  <si>
+    <t>idx_celulares_marca_id</t>
+  </si>
+  <si>
+    <t>idx_celulares_cliente_id</t>
+  </si>
+  <si>
+    <t>PK_Marcas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_marcas_nome	</t>
+  </si>
+  <si>
+    <t>PK_Planos</t>
+  </si>
+  <si>
+    <t>idx_planos_nome_plano</t>
+  </si>
+  <si>
+    <t>PK_Coberturas</t>
+  </si>
+  <si>
+    <t>idx_coberturas_plano_id</t>
+  </si>
+  <si>
+    <t>PK_Apolices</t>
+  </si>
+  <si>
+    <t>idx_apolices_celular_id</t>
+  </si>
+  <si>
+    <t>idx_apolices_cliente_id</t>
+  </si>
+  <si>
+    <t>idx_apolices_plano_id</t>
+  </si>
+  <si>
+    <t>idx_detalhes_apolices_apolice_id</t>
+  </si>
+  <si>
+    <t>idx_detalhes_apolices_status_apolice_id</t>
+  </si>
+  <si>
+    <t>PK_Status_Apolices</t>
+  </si>
+  <si>
+    <t>idx_status_apolices_nome_status</t>
+  </si>
+  <si>
+    <t>PK_Pagamentos</t>
+  </si>
+  <si>
+    <t>pagamento_id</t>
+  </si>
+  <si>
+    <t>dx_pagamentos_apolice_id</t>
+  </si>
+  <si>
+    <t>dx_pagamentos_metodo_pagamento_id</t>
+  </si>
+  <si>
+    <t>idx_pagamentos_status_pagamentos_id</t>
+  </si>
+  <si>
+    <t>PK_Status_Pagamentos</t>
+  </si>
+  <si>
+    <t>idx_status_pagamentos_nome_status</t>
+  </si>
+  <si>
+    <t>PK_Metodo_Pagamento</t>
+  </si>
+  <si>
+    <t>idx_metodo_pagamento_nome</t>
+  </si>
+  <si>
+    <t>PK_Sinistros</t>
+  </si>
+  <si>
+    <t>idx_sinistros_apolice_id</t>
+  </si>
+  <si>
+    <t>idx_sinistros_status_sinistro_id</t>
+  </si>
+  <si>
+    <t>idx_sinistros_tipo_ocorrencia_id</t>
+  </si>
+  <si>
+    <t>PK_Tipos_Ocorrencia</t>
+  </si>
+  <si>
+    <t>idx_tipos_ocorrencia_nome_tipo</t>
+  </si>
+  <si>
+    <t>PK_Status_Sinistros</t>
+  </si>
+  <si>
+    <t>idx_status_sinistros_nome_status</t>
+  </si>
+  <si>
+    <t>PK_Atendimentos</t>
+  </si>
+  <si>
+    <t>idx_atendimentos_atendente_id</t>
+  </si>
+  <si>
+    <t>idx_atendimentos_cliente_id</t>
+  </si>
+  <si>
+    <t>idx_atendimentos_tipo_contato_id</t>
+  </si>
+  <si>
+    <t>PK_Tipos_Contato_Atendimento</t>
+  </si>
+  <si>
+    <t>tipos_contanto_id</t>
+  </si>
+  <si>
+    <t>idx_tipos_contato_atendimento_nome_tipo</t>
+  </si>
+  <si>
+    <t>PK_Atendentes</t>
+  </si>
+  <si>
+    <t>atendentes_id</t>
+  </si>
+  <si>
+    <t>idx_atendentes_nome_atendente</t>
+  </si>
+  <si>
+    <t>UQ_Atendentes_email_atendente</t>
+  </si>
+  <si>
+    <t>idx_atendentes_telefone_atendente</t>
+  </si>
+  <si>
+    <t>PK_Cargos</t>
+  </si>
+  <si>
+    <t>idx_cargos_descricao_cargo</t>
+  </si>
+  <si>
+    <t>idx_cargos_nome_cargo</t>
+  </si>
+  <si>
+    <t>descricap_cargo</t>
+  </si>
+  <si>
+    <t>1-2.147.483.647</t>
+  </si>
+  <si>
+    <t>1-2147483647</t>
+  </si>
+  <si>
+    <t>0001-01-01 até 9999-12-31</t>
+  </si>
+  <si>
+    <t>1-9.999.999,99</t>
+  </si>
+  <si>
+    <t>1 - 9.999.999,99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 - 16 carac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' ' - 50' carac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' ' - 500 carac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' ' - 100 carac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' ' - 50 carac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' '-50' carac.</t>
+  </si>
+  <si>
+    <t>15 - 20 carac.</t>
+  </si>
+  <si>
+    <t>10 - 16' carac.</t>
+  </si>
+  <si>
+    <t>1 - 100 carac.</t>
+  </si>
+  <si>
+    <t>11-14' carac.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +820,17 @@
       <color rgb="FF292827"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Variable Display"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,15 +938,6 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -379,6 +945,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,15 +966,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,6 +986,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,41 +1323,41 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -797,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -813,15 +1384,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="20"/>
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -831,106 +1402,102 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="20"/>
+      <c r="A6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="20"/>
+      <c r="A7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="20"/>
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="20"/>
+      <c r="A9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="20"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -942,7 +1509,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="1" t="s">
@@ -961,10 +1528,10 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="25"/>
+      <c r="A13" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="22"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -972,33 +1539,33 @@
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="25"/>
+      <c r="F13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="25"/>
+      <c r="A14" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="22"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="25"/>
+      <c r="F14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="25"/>
+      <c r="A15" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="22"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
@@ -1006,65 +1573,71 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="25"/>
+      <c r="F15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="25"/>
+      <c r="A16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="22"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="25"/>
+      <c r="F16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="22"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="B18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -1079,15 +1652,15 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>5</v>
@@ -1103,15 +1676,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="13"/>
+      <c r="A22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
+      <c r="D22" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
@@ -1121,124 +1694,120 @@
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13"/>
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D23" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="13"/>
+      <c r="A24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="13"/>
+      <c r="A25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="13"/>
+      <c r="A26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="13"/>
+      <c r="A27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,17 +1817,17 @@
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="11"/>
+      <c r="A30" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1266,89 +1835,89 @@
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="F30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="11"/>
+      <c r="A31" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="11"/>
+      <c r="A32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="8"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="11"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
+      <c r="B35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
+      <c r="B36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
@@ -1363,15 +1932,15 @@
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>5</v>
@@ -1386,16 +1955,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="13"/>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="10"/>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
@@ -1405,124 +1974,92 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>51</v>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>55</v>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
@@ -1532,17 +2069,17 @@
       <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="11"/>
+      <c r="A47" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="8"/>
       <c r="C47" s="4" t="s">
         <v>10</v>
       </c>
@@ -1550,85 +2087,3899 @@
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="F47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="11"/>
+      <c r="A48" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="8"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="11" t="s">
+      <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="E86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="8"/>
+      <c r="C95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="8"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="13"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="13"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="9"/>
+      <c r="C126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B127" s="8"/>
+      <c r="C127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" s="8"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="13"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B135" s="10"/>
+      <c r="C135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" s="10"/>
+      <c r="C136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B137" s="10"/>
+      <c r="C137" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B138" s="10"/>
+      <c r="C138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139" s="10"/>
+      <c r="C139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B140" s="10"/>
+      <c r="C140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="9"/>
+      <c r="C142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" s="8"/>
+      <c r="C143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B144" s="8"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B145" s="8"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B146" s="8"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="3"/>
+      <c r="F146" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="13"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B151" s="10"/>
+      <c r="C151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" s="10"/>
+      <c r="C152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="9"/>
+      <c r="C158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" s="8"/>
+      <c r="C159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B160" s="8"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="13"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" s="9"/>
+      <c r="C166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B167" s="10"/>
+      <c r="C167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B168" s="10"/>
+      <c r="C168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B175" s="8"/>
+      <c r="C175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B176" s="8"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="13"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="9"/>
+      <c r="C182" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B183" s="10"/>
+      <c r="C183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B184" s="10"/>
+      <c r="C184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B185" s="10"/>
+      <c r="C185" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B186" s="10"/>
+      <c r="C186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B187" s="10"/>
+      <c r="C187" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B188" s="10"/>
+      <c r="C188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="9"/>
+      <c r="C190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B191" s="8"/>
+      <c r="C191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B192" s="8"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="3"/>
+      <c r="F192" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B193" s="8"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" s="3"/>
+      <c r="F193" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B194" s="8"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="3"/>
+      <c r="F194" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="13"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" s="14"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="14"/>
+      <c r="H197" s="14"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B198" s="9"/>
+      <c r="C198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B199" s="10"/>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B200" s="10"/>
+      <c r="C200" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B206" s="9"/>
+      <c r="C206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B207" s="8"/>
+      <c r="C207" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G207" s="8"/>
+      <c r="H207" s="8"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B208" s="8"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" s="3"/>
+      <c r="F208" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G208" s="8"/>
+      <c r="H208" s="8"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+      <c r="H210" s="8"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="13"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="14"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14"/>
+      <c r="F213" s="14"/>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B214" s="9"/>
+      <c r="C214" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B215" s="10"/>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B216" s="10"/>
+      <c r="C216" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="9"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222" s="9"/>
+      <c r="C222" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B223" s="8"/>
+      <c r="C223" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B224" s="8"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" s="3"/>
+      <c r="F224" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G224" s="8"/>
+      <c r="H224" s="8"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="8"/>
+      <c r="H225" s="8"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="3"/>
+      <c r="E226" s="3"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="8"/>
+      <c r="H226" s="8"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="13"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="14"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="14"/>
+      <c r="F229" s="14"/>
+      <c r="G229" s="14"/>
+      <c r="H229" s="14"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230" s="9"/>
+      <c r="C230" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B231" s="10"/>
+      <c r="C231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="10"/>
+      <c r="C232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B233" s="10"/>
+      <c r="C233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B234" s="10"/>
+      <c r="C234" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B235" s="10"/>
+      <c r="C235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B236" s="10"/>
+      <c r="C236" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B237" s="10"/>
+      <c r="C237" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B239" s="9"/>
+      <c r="C239" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B240" s="8"/>
+      <c r="C240" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B241" s="8"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241" s="3"/>
+      <c r="F241" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G241" s="8"/>
+      <c r="H241" s="8"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B242" s="8"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" s="3"/>
+      <c r="F242" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G242" s="8"/>
+      <c r="H242" s="8"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B243" s="8"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" s="3"/>
+      <c r="F243" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G243" s="8"/>
+      <c r="H243" s="8"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="13"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
+      <c r="F246" s="14"/>
+      <c r="G246" s="14"/>
+      <c r="H246" s="14"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" s="9"/>
+      <c r="C247" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B248" s="10"/>
+      <c r="C248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2"/>
+      <c r="H248" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B249" s="10"/>
+      <c r="C249" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="10"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="10"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" s="9"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" s="9"/>
+      <c r="C255" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G255" s="9"/>
+      <c r="H255" s="9"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B256" s="8"/>
+      <c r="C256" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G256" s="8"/>
+      <c r="H256" s="8"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B257" s="8"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257" s="3"/>
+      <c r="F257" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G257" s="8"/>
+      <c r="H257" s="8"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="8"/>
+      <c r="H258" s="8"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+      <c r="E260" s="12"/>
+      <c r="F260" s="12"/>
+      <c r="G260" s="12"/>
+      <c r="H260" s="13"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
+      <c r="G261" s="10"/>
+      <c r="H261" s="10"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262" s="14"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="14"/>
+      <c r="F262" s="14"/>
+      <c r="G262" s="14"/>
+      <c r="H262" s="14"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B263" s="9"/>
+      <c r="C263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B264" s="10"/>
+      <c r="C264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="2"/>
+      <c r="H264" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B265" s="10"/>
+      <c r="C265" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B266" s="10"/>
+      <c r="C266" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B267" s="10"/>
+      <c r="C267" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B268" s="10"/>
+      <c r="C268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B269" s="10"/>
+      <c r="C269" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270" s="9"/>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="9"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" s="9"/>
+      <c r="C271" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F271" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G271" s="9"/>
+      <c r="H271" s="9"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B272" s="8"/>
+      <c r="C272" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="3"/>
+      <c r="E272" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G272" s="8"/>
+      <c r="H272" s="8"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B273" s="8"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" s="3"/>
+      <c r="F273" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G273" s="8"/>
+      <c r="H273" s="8"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B274" s="8"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G274" s="8"/>
+      <c r="H274" s="8"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B275" s="8"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" s="3"/>
+      <c r="F275" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G275" s="8"/>
+      <c r="H275" s="8"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="12"/>
+      <c r="F276" s="12"/>
+      <c r="G276" s="12"/>
+      <c r="H276" s="13"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="10"/>
+      <c r="G277" s="10"/>
+      <c r="H277" s="10"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" s="9"/>
+      <c r="C279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B280" s="10"/>
+      <c r="C280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B281" s="10"/>
+      <c r="C281" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B282" s="10"/>
+      <c r="C282" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="10"/>
+      <c r="B283" s="10"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="10"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="10"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B286" s="9"/>
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" s="9"/>
+      <c r="C287" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B288" s="8"/>
+      <c r="C288" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G288" s="8"/>
+      <c r="H288" s="8"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B289" s="8"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" s="3"/>
+      <c r="F289" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G289" s="8"/>
+      <c r="H289" s="8"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B290" s="8"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E290" s="3"/>
+      <c r="F290" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G290" s="8"/>
+      <c r="H290" s="8"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="8"/>
+      <c r="G291" s="8"/>
+      <c r="H291" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F49:H49"/>
+  <mergeCells count="381">
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="A45:H45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="F46:H46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="A13:B13"/>
@@ -1637,6 +5988,7 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B35:H35"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B1:H1"/>
@@ -1650,28 +6002,344 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="F30:H30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="F33:H33"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B132:H132"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="A141:H141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="A149:H149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="A157:H157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="A173:H173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="B179:H179"/>
+    <mergeCell ref="B180:H180"/>
+    <mergeCell ref="A181:H181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="A189:H189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="B195:H195"/>
+    <mergeCell ref="B196:H196"/>
+    <mergeCell ref="A197:H197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="F208:H208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="F209:H209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="F210:H210"/>
+    <mergeCell ref="A205:H205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="F206:H206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="F207:H207"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="B211:H211"/>
+    <mergeCell ref="B212:H212"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="F224:H224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="F225:H225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="F226:H226"/>
+    <mergeCell ref="A221:H221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="F222:H222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="F223:H223"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="B227:H227"/>
+    <mergeCell ref="B228:H228"/>
+    <mergeCell ref="A229:H229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="F241:H241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="F242:H242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="F243:H243"/>
+    <mergeCell ref="A238:H238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="F239:H239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="F240:H240"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="B244:H244"/>
+    <mergeCell ref="B245:H245"/>
+    <mergeCell ref="A246:H246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="F257:H257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="A254:H254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="F255:H255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="F256:H256"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="B260:H260"/>
+    <mergeCell ref="B261:H261"/>
+    <mergeCell ref="A262:H262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="F273:H273"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="F274:H274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="F275:H275"/>
+    <mergeCell ref="A270:H270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="F271:H271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="F272:H272"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="B276:H276"/>
+    <mergeCell ref="B277:H277"/>
+    <mergeCell ref="A278:H278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="F289:H289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="F290:H290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="F291:H291"/>
+    <mergeCell ref="A286:H286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="F287:H287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="F288:H288"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/dicionario_dados/Dicionario de dados.xlsx
+++ b/dicionario_dados/Dicionario de dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07e0eb112c907da7/Desktop/Repositorio local Securecel/securecel/dicionario_dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8870E-0435-4071-9055-76C63AF395C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{BCD8870E-0435-4071-9055-76C63AF395C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E823043C-BB8F-47B6-B2FE-62D9F959A4CB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8A75A3C3-1CC3-42DF-908E-18684CFF6B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="223">
   <si>
     <t>Tabela</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Detalhes_Apolices</t>
   </si>
   <si>
-    <t>Status_Apolice</t>
-  </si>
-  <si>
     <t>Pagamentos</t>
   </si>
   <si>
@@ -272,15 +269,9 @@
     <t>Atendimentos</t>
   </si>
   <si>
-    <t>Tipos_Contato_Atendimento</t>
-  </si>
-  <si>
     <t>Atendentes</t>
   </si>
   <si>
-    <t>Cargos</t>
-  </si>
-  <si>
     <t>cobertura_id</t>
   </si>
   <si>
@@ -323,12 +314,6 @@
     <t>data_fim</t>
   </si>
   <si>
-    <t>status_apolice_id</t>
-  </si>
-  <si>
-    <t>FK referente a status_apolice_id de Status_Apolice</t>
-  </si>
-  <si>
     <t>Código identificador de coberturas</t>
   </si>
   <si>
@@ -338,9 +323,6 @@
     <t>nome_status</t>
   </si>
   <si>
-    <t>nome descritivo dos status da apolice</t>
-  </si>
-  <si>
     <t>pagamanto_id</t>
   </si>
   <si>
@@ -446,9 +428,6 @@
     <t>data_atendimento</t>
   </si>
   <si>
-    <t>tipo_contato_id</t>
-  </si>
-  <si>
     <t>assunto</t>
   </si>
   <si>
@@ -458,9 +437,6 @@
     <t>Data que ocorreu o atendimento</t>
   </si>
   <si>
-    <t>FK referente a tipo_contato_id de Tipo_Contato_Atendimento</t>
-  </si>
-  <si>
     <t>assunto de atendimentos</t>
   </si>
   <si>
@@ -473,21 +449,12 @@
     <t>Tabela responsavel por armazenar os detalhes das coberturas de cada plano</t>
   </si>
   <si>
-    <t>Tabela responsavel por armazenar os estados do status da apolice</t>
-  </si>
-  <si>
     <t>Tabela responsavel por armazenar os dados dos pagamentos</t>
   </si>
   <si>
     <t>Tabela responsavel por armazenar os estados do status dos pagamentos</t>
   </si>
   <si>
-    <t>tipos_contato_id</t>
-  </si>
-  <si>
-    <t>Código identificador do tipo de contato</t>
-  </si>
-  <si>
     <t>Código de identificação dos atendentes</t>
   </si>
   <si>
@@ -506,9 +473,6 @@
     <t>telefone_atendente</t>
   </si>
   <si>
-    <t>cargo_id</t>
-  </si>
-  <si>
     <t>data_admissao</t>
   </si>
   <si>
@@ -518,39 +482,12 @@
     <t>telefone do atendente</t>
   </si>
   <si>
-    <t>cargo de atendente</t>
-  </si>
-  <si>
     <t>data de admissão do atendente</t>
   </si>
   <si>
-    <t>nome_cargo</t>
-  </si>
-  <si>
-    <t>Código identificador de cargo</t>
-  </si>
-  <si>
-    <t>descricao_cargo</t>
-  </si>
-  <si>
-    <t>Descrição do cargo</t>
-  </si>
-  <si>
-    <t>nome do cargo</t>
-  </si>
-  <si>
-    <t>Tabela responsavel por armazenar nome e uma descrição para cada cargo.</t>
-  </si>
-  <si>
     <t>Tabela responsavel por armazenar os dados de cada atendentes</t>
   </si>
   <si>
-    <t>Tabela responsavel por armazenar os tipos de contatos de atendimentos</t>
-  </si>
-  <si>
-    <t>nome do tipo do contato do atendimento</t>
-  </si>
-  <si>
     <t>Tabela responsavel por armazenar os detalhes de cada atendimento</t>
   </si>
   <si>
@@ -632,15 +569,6 @@
     <t>idx_detalhes_apolices_apolice_id</t>
   </si>
   <si>
-    <t>idx_detalhes_apolices_status_apolice_id</t>
-  </si>
-  <si>
-    <t>PK_Status_Apolices</t>
-  </si>
-  <si>
-    <t>idx_status_apolices_nome_status</t>
-  </si>
-  <si>
     <t>PK_Pagamentos</t>
   </si>
   <si>
@@ -701,18 +629,6 @@
     <t>idx_atendimentos_cliente_id</t>
   </si>
   <si>
-    <t>idx_atendimentos_tipo_contato_id</t>
-  </si>
-  <si>
-    <t>PK_Tipos_Contato_Atendimento</t>
-  </si>
-  <si>
-    <t>tipos_contanto_id</t>
-  </si>
-  <si>
-    <t>idx_tipos_contato_atendimento_nome_tipo</t>
-  </si>
-  <si>
     <t>PK_Atendentes</t>
   </si>
   <si>
@@ -728,24 +644,9 @@
     <t>idx_atendentes_telefone_atendente</t>
   </si>
   <si>
-    <t>PK_Cargos</t>
-  </si>
-  <si>
-    <t>idx_cargos_descricao_cargo</t>
-  </si>
-  <si>
-    <t>idx_cargos_nome_cargo</t>
-  </si>
-  <si>
-    <t>descricap_cargo</t>
-  </si>
-  <si>
     <t>1-2.147.483.647</t>
   </si>
   <si>
-    <t>1-2147483647</t>
-  </si>
-  <si>
     <t>0001-01-01 até 9999-12-31</t>
   </si>
   <si>
@@ -755,9 +656,6 @@
     <t>1 - 9.999.999,99</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 10 - 16 carac.</t>
   </si>
   <si>
@@ -786,6 +684,27 @@
   </si>
   <si>
     <t>11-14' carac.</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>nome descritivo de status de apolice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' ' - 20 carac.</t>
+  </si>
+  <si>
+    <t>varchar (20)</t>
+  </si>
+  <si>
+    <t>tipo_contato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' ' - 20 </t>
+  </si>
+  <si>
+    <t>tipo de meio de contato com celular, etc..</t>
   </si>
 </sst>
 </file>
@@ -938,22 +857,27 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,6 +892,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -977,20 +910,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A588904-58D6-4340-A48F-92FCD18181A8}">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,47 +1242,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1384,15 +1303,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -1406,10 +1325,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="13"/>
+      <c r="A6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="23"/>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1424,15 +1343,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1442,15 +1361,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1460,15 +1379,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1478,15 +1397,15 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1496,22 +1415,22 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1521,17 +1440,17 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="22"/>
+      <c r="A13" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1539,33 +1458,33 @@
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="22"/>
+      <c r="A14" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="22"/>
+      <c r="A15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
@@ -1573,89 +1492,89 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="22"/>
+      <c r="A16" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="22"/>
+      <c r="A17" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1676,15 +1595,15 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>234</v>
+      <c r="D22" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
@@ -1698,15 +1617,15 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>234</v>
+      <c r="D23" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1714,19 +1633,19 @@
         <v>10</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1734,19 +1653,19 @@
         <v>10</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1756,15 +1675,15 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1774,15 +1693,15 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1792,22 +1711,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1817,17 +1736,17 @@
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="8"/>
+      <c r="A30" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1835,49 +1754,49 @@
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="8"/>
+      <c r="A31" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="11"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="8"/>
+      <c r="A32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="11"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="8"/>
+      <c r="A33" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="11"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
         <v>10</v>
@@ -1885,57 +1804,57 @@
       <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
@@ -1956,15 +1875,15 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
@@ -1978,15 +1897,15 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1996,8 +1915,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="2"/>
       <c r="D41" s="6" t="s">
         <v>22</v>
@@ -2008,8 +1927,8 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="2"/>
       <c r="D42" s="6" t="s">
         <v>22</v>
@@ -2020,8 +1939,8 @@
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="2"/>
       <c r="D43" s="6" t="s">
         <v>22</v>
@@ -2032,8 +1951,8 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
         <v>22</v>
@@ -2044,22 +1963,22 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
@@ -2069,17 +1988,17 @@
       <c r="E46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B47" s="8"/>
+      <c r="A47" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
         <v>10</v>
       </c>
@@ -2087,93 +2006,93 @@
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="8"/>
+      <c r="A48" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="11"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="4"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
@@ -2194,15 +2113,15 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="10"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>9</v>
@@ -2216,15 +2135,15 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="10"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2234,15 +2153,15 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="10"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2252,15 +2171,15 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="10"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2270,8 +2189,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="2"/>
       <c r="D59" s="6" t="s">
         <v>22</v>
@@ -2282,8 +2201,8 @@
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
         <v>22</v>
@@ -2294,22 +2213,22 @@
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="1" t="s">
         <v>11</v>
       </c>
@@ -2319,17 +2238,17 @@
       <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" s="8"/>
+      <c r="A63" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="11"/>
       <c r="C63" s="4" t="s">
         <v>10</v>
       </c>
@@ -2337,93 +2256,93 @@
       <c r="E63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="8"/>
+      <c r="A64" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="11"/>
       <c r="C64" s="4"/>
       <c r="D64" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+      <c r="B68" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
@@ -2444,15 +2363,15 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="10"/>
+      <c r="A71" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="12"/>
       <c r="C71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>234</v>
+      <c r="D71" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>9</v>
@@ -2462,19 +2381,19 @@
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B72" s="10"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -2482,30 +2401,30 @@
         <v>10</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="10"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="2"/>
       <c r="D74" s="6" t="s">
         <v>22</v>
@@ -2516,8 +2435,8 @@
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="2"/>
       <c r="D75" s="6" t="s">
         <v>22</v>
@@ -2528,8 +2447,8 @@
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
         <v>22</v>
@@ -2540,22 +2459,22 @@
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="1" t="s">
         <v>11</v>
       </c>
@@ -2565,17 +2484,17 @@
       <c r="E78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" s="8"/>
+      <c r="A79" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="11"/>
       <c r="C79" s="4" t="s">
         <v>10</v>
       </c>
@@ -2583,93 +2502,93 @@
       <c r="E79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
+      <c r="F79" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B80" s="8"/>
+      <c r="A80" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="11"/>
       <c r="C80" s="4"/>
       <c r="D80" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="4"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="4"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="13"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="23"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+      <c r="B84" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
@@ -2690,15 +2609,15 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="10"/>
+      <c r="A87" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="12"/>
       <c r="C87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>9</v>
@@ -2708,19 +2627,19 @@
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -2728,19 +2647,19 @@
         <v>10</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -2748,19 +2667,19 @@
         <v>10</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B90" s="10"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -2768,12 +2687,12 @@
         <v>10</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="2"/>
       <c r="D91" s="6" t="s">
         <v>22</v>
@@ -2784,8 +2703,8 @@
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
         <v>22</v>
@@ -2796,22 +2715,22 @@
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="1" t="s">
         <v>11</v>
       </c>
@@ -2821,17 +2740,17 @@
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="8"/>
+      <c r="A95" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="11"/>
       <c r="C95" s="4" t="s">
         <v>10</v>
       </c>
@@ -2839,105 +2758,105 @@
       <c r="E95" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
+      <c r="F95" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B96" s="8"/>
+      <c r="A96" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="11"/>
       <c r="C96" s="4"/>
       <c r="D96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="3"/>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" s="8"/>
+      <c r="A97" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="11"/>
       <c r="C97" s="4"/>
       <c r="D97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E97" s="3"/>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B98" s="8"/>
+      <c r="A98" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" s="11"/>
       <c r="C98" s="4"/>
       <c r="D98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E98" s="3"/>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="23"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
+      <c r="B100" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
@@ -2958,15 +2877,15 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B103" s="10"/>
+      <c r="A103" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="12"/>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -2974,68 +2893,66 @@
         <v>10</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B104" s="10"/>
+      <c r="A104" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B104" s="12"/>
       <c r="C104" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B105" s="10"/>
+      <c r="A105" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="12"/>
       <c r="C105" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="10"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" s="12"/>
       <c r="C106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>234</v>
+        <v>219</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
       <c r="C107" s="2"/>
       <c r="D107" s="6" t="s">
         <v>22</v>
@@ -3046,8 +2963,8 @@
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
         <v>22</v>
@@ -3058,22 +2975,22 @@
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B110" s="9"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="1" t="s">
         <v>11</v>
       </c>
@@ -3083,109 +3000,103 @@
       <c r="E110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B111" s="8"/>
+      <c r="A111" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" s="11"/>
       <c r="C111" s="4"/>
       <c r="D111" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E111" s="3"/>
-      <c r="F111" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
+      <c r="F111" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B112" s="8"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
       <c r="C113" s="4"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
       <c r="C114" s="4"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="13"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="23"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
+      <c r="B116" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="9"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="1" t="s">
         <v>4</v>
       </c>
@@ -3206,15 +3117,15 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="10"/>
+      <c r="B119" s="12"/>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="25" t="s">
-        <v>235</v>
+      <c r="D119" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>9</v>
@@ -3224,94 +3135,122 @@
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B120" s="10"/>
+      <c r="A120" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="12"/>
       <c r="C120" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>239</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H120" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D121" s="6" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+      <c r="H121" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="2"/>
+      <c r="A122" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D122" s="6" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="2"/>
+      <c r="H122" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D123" s="6" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2" t="s">
-        <v>22</v>
+      <c r="G123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="12"/>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
+      <c r="G124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B126" s="9"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="1" t="s">
         <v>11</v>
       </c>
@@ -3321,17 +3260,17 @@
       <c r="E126" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B127" s="8"/>
+      <c r="A127" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="11"/>
       <c r="C127" s="4" t="s">
         <v>10</v>
       </c>
@@ -3339,93 +3278,105 @@
       <c r="E127" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
+      <c r="F127" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" s="8"/>
+      <c r="A128" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B128" s="11"/>
       <c r="C128" s="4"/>
       <c r="D128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E128" s="3"/>
-      <c r="F128" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
+      <c r="F128" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
+      <c r="A129" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="11"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E129" s="3"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
+      <c r="F129" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
+      <c r="A130" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130" s="11"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E130" s="3"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
+      <c r="F130" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="13"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="23"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
+      <c r="B132" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="9"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="1" t="s">
         <v>4</v>
       </c>
@@ -3445,16 +3396,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B135" s="10"/>
+    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" s="12"/>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D135" s="25" t="s">
-        <v>234</v>
+      <c r="D135" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>9</v>
@@ -3464,122 +3415,92 @@
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B136" s="10"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B136" s="12"/>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
-      <c r="G136" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B137" s="10"/>
-      <c r="C137" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="2"/>
       <c r="D137" s="6" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B138" s="10"/>
-      <c r="C138" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="2"/>
       <c r="D138" s="6" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
-      <c r="H138" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B139" s="10"/>
-      <c r="C139" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="2"/>
       <c r="D139" s="6" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
-      <c r="G139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>234</v>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
-      <c r="G140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B142" s="9"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="1" t="s">
         <v>11</v>
       </c>
@@ -3589,17 +3510,17 @@
       <c r="E142" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="F142" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B143" s="8"/>
+      <c r="A143" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B143" s="11"/>
       <c r="C143" s="4" t="s">
         <v>10</v>
       </c>
@@ -3607,105 +3528,93 @@
       <c r="E143" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F143" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
+      <c r="F143" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B144" s="8"/>
+      <c r="A144" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B144" s="11"/>
       <c r="C144" s="4"/>
       <c r="D144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E144" s="3"/>
-      <c r="F144" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
+      <c r="F144" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B145" s="8"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B146" s="8"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="13"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="23"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
+      <c r="B148" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B149" s="14"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="9"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="1" t="s">
         <v>4</v>
       </c>
@@ -3726,15 +3635,15 @@
       </c>
     </row>
     <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B151" s="10"/>
+      <c r="A151" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B151" s="12"/>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="25" t="s">
-        <v>234</v>
+      <c r="D151" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>9</v>
@@ -3744,30 +3653,30 @@
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B152" s="10"/>
+      <c r="A152" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B152" s="12"/>
       <c r="C152" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="2"/>
       <c r="D153" s="6" t="s">
         <v>22</v>
@@ -3778,8 +3687,8 @@
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="2"/>
       <c r="D154" s="6" t="s">
         <v>22</v>
@@ -3790,8 +3699,8 @@
       <c r="H154" s="2"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="2"/>
       <c r="D155" s="6" t="s">
         <v>22</v>
@@ -3802,8 +3711,8 @@
       <c r="H155" s="2"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
         <v>22</v>
@@ -3814,22 +3723,22 @@
       <c r="H156" s="2"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B158" s="9"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="1" t="s">
         <v>11</v>
       </c>
@@ -3839,17 +3748,17 @@
       <c r="E158" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F158" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B159" s="8"/>
+      <c r="A159" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" s="11"/>
       <c r="C159" s="4" t="s">
         <v>10</v>
       </c>
@@ -3857,93 +3766,93 @@
       <c r="E159" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F159" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
+      <c r="F159" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B160" s="8"/>
+      <c r="A160" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" s="11"/>
       <c r="C160" s="4"/>
       <c r="D160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E160" s="3"/>
-      <c r="F160" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
+      <c r="F160" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="4"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
       <c r="C162" s="4"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="13"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="23"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
+      <c r="B164" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B165" s="14"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="9"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
@@ -3963,16 +3872,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B167" s="10"/>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B167" s="12"/>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="25" t="s">
-        <v>234</v>
+      <c r="D167" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>9</v>
@@ -3985,89 +3894,119 @@
         <v>115</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B168" s="10"/>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B168" s="12"/>
       <c r="C168" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
+      <c r="G168" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H168" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="2"/>
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B169" s="12"/>
+      <c r="C169" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D169" s="6" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="2"/>
+      <c r="H169" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B170" s="12"/>
+      <c r="C170" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D170" s="6" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
+      <c r="G170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="2"/>
+      <c r="A171" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D171" s="6" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2" t="s">
-        <v>22</v>
+      <c r="H171" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B172" s="12"/>
+      <c r="C172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="16"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B174" s="9"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="1" t="s">
         <v>11</v>
       </c>
@@ -4077,17 +4016,17 @@
       <c r="E174" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F174" s="9" t="s">
+      <c r="F174" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="16"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B175" s="8"/>
+      <c r="A175" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B175" s="11"/>
       <c r="C175" s="4" t="s">
         <v>10</v>
       </c>
@@ -4095,93 +4034,105 @@
       <c r="E175" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F175" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
+      <c r="F175" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B176" s="8"/>
+      <c r="A176" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="11"/>
       <c r="C176" s="4"/>
       <c r="D176" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E176" s="3"/>
-      <c r="F176" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
+      <c r="F176" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
+      <c r="A177" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177" s="11"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="3"/>
+      <c r="D177" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E177" s="3"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
+      <c r="F177" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
+      <c r="A178" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178" s="11"/>
       <c r="C178" s="4"/>
-      <c r="D178" s="3"/>
+      <c r="D178" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E178" s="3"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
+      <c r="F178" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="13"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="23"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
+      <c r="B180" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B181" s="14"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B182" s="9"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="1" t="s">
         <v>4</v>
       </c>
@@ -4201,16 +4152,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B183" s="10"/>
+    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B183" s="12"/>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D183" s="25" t="s">
-        <v>234</v>
+      <c r="D183" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>9</v>
@@ -4220,122 +4171,92 @@
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B184" s="10"/>
+      <c r="B184" s="12"/>
       <c r="C184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>234</v>
+        <v>43</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
-      <c r="G184" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G184" s="2"/>
       <c r="H184" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B185" s="10"/>
-      <c r="C185" s="2" t="s">
-        <v>36</v>
-      </c>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="2"/>
       <c r="D185" s="6" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B186" s="10"/>
-      <c r="C186" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="2"/>
       <c r="D186" s="6" t="s">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
-      <c r="G186" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B187" s="10"/>
-      <c r="C187" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="2"/>
       <c r="D187" s="6" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-      <c r="H187" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B188" s="10"/>
-      <c r="C188" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="24" t="s">
-        <v>234</v>
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
-      <c r="G188" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
-      <c r="F189" s="9"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="9"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="16"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="9" t="s">
+      <c r="A190" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B190" s="9"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="1" t="s">
         <v>11</v>
       </c>
@@ -4345,17 +4266,17 @@
       <c r="E190" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F190" s="9" t="s">
+      <c r="F190" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G190" s="9"/>
-      <c r="H190" s="9"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="16"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B191" s="8"/>
+      <c r="A191" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="11"/>
       <c r="C191" s="4" t="s">
         <v>10</v>
       </c>
@@ -4363,105 +4284,93 @@
       <c r="E191" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F191" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
+      <c r="F191" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B192" s="8"/>
+      <c r="A192" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="11"/>
       <c r="C192" s="4"/>
       <c r="D192" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E192" s="3"/>
-      <c r="F192" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
+      <c r="F192" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B193" s="8"/>
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
       <c r="C193" s="4"/>
-      <c r="D193" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D193" s="3"/>
       <c r="E193" s="3"/>
-      <c r="F193" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B194" s="8"/>
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D194" s="3"/>
       <c r="E194" s="3"/>
-      <c r="F194" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
-      <c r="G195" s="12"/>
-      <c r="H195" s="13"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+      <c r="E195" s="22"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="23"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B196" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
+      <c r="B196" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="14" t="s">
+      <c r="A197" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="14"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="14"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="9"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="1" t="s">
         <v>4</v>
       </c>
@@ -4482,15 +4391,15 @@
       </c>
     </row>
     <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B199" s="10"/>
+      <c r="A199" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B199" s="12"/>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D199" s="25" t="s">
-        <v>234</v>
+      <c r="D199" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>9</v>
@@ -4500,30 +4409,30 @@
       </c>
       <c r="G199" s="2"/>
       <c r="H199" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B200" s="10"/>
+      <c r="A200" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B200" s="12"/>
       <c r="C200" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D200" s="7" t="s">
-        <v>241</v>
+      <c r="D200" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
-      <c r="B201" s="10"/>
+      <c r="A201" s="12"/>
+      <c r="B201" s="12"/>
       <c r="C201" s="2"/>
       <c r="D201" s="6" t="s">
         <v>22</v>
@@ -4534,8 +4443,8 @@
       <c r="H201" s="2"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10"/>
+      <c r="A202" s="12"/>
+      <c r="B202" s="12"/>
       <c r="C202" s="2"/>
       <c r="D202" s="6" t="s">
         <v>22</v>
@@ -4546,8 +4455,8 @@
       <c r="H202" s="2"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="10"/>
-      <c r="B203" s="10"/>
+      <c r="A203" s="12"/>
+      <c r="B203" s="12"/>
       <c r="C203" s="2"/>
       <c r="D203" s="6" t="s">
         <v>22</v>
@@ -4558,8 +4467,8 @@
       <c r="H203" s="2"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
-      <c r="B204" s="10"/>
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2" t="s">
         <v>22</v>
@@ -4570,22 +4479,22 @@
       <c r="H204" s="2"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="9"/>
-      <c r="F205" s="9"/>
-      <c r="G205" s="9"/>
-      <c r="H205" s="9"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="16"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B206" s="9"/>
+      <c r="B206" s="16"/>
       <c r="C206" s="1" t="s">
         <v>11</v>
       </c>
@@ -4595,17 +4504,17 @@
       <c r="E206" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F206" s="9" t="s">
+      <c r="F206" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G206" s="9"/>
-      <c r="H206" s="9"/>
+      <c r="G206" s="16"/>
+      <c r="H206" s="16"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B207" s="8"/>
+      <c r="A207" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B207" s="11"/>
       <c r="C207" s="4" t="s">
         <v>10</v>
       </c>
@@ -4613,93 +4522,93 @@
       <c r="E207" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F207" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
+      <c r="F207" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B208" s="8"/>
+      <c r="A208" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B208" s="11"/>
       <c r="C208" s="4"/>
       <c r="D208" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E208" s="3"/>
-      <c r="F208" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
+      <c r="F208" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
       <c r="C209" s="4"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
       <c r="C210" s="4"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="13"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="22"/>
+      <c r="H211" s="23"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B212" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="10"/>
+      <c r="B212" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="14" t="s">
+      <c r="A213" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="14"/>
-      <c r="C213" s="14"/>
-      <c r="D213" s="14"/>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
-      <c r="G213" s="14"/>
-      <c r="H213" s="14"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="9"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="1" t="s">
         <v>4</v>
       </c>
@@ -4720,15 +4629,15 @@
       </c>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B215" s="10"/>
+      <c r="A215" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B215" s="12"/>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D215" s="25" t="s">
-        <v>234</v>
+      <c r="D215" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>9</v>
@@ -4738,1228 +4647,769 @@
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B216" s="10"/>
+      <c r="A216" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B216" s="12"/>
       <c r="C216" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
+      <c r="G216" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H216" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B217" s="12"/>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D217" s="6" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="10"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="2"/>
+      <c r="G217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B218" s="12"/>
+      <c r="C218" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D218" s="6" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="2"/>
+      <c r="H218" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="12"/>
+      <c r="C219" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="D219" s="6" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
+      <c r="H219" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="2"/>
+      <c r="A220" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B220" s="12"/>
+      <c r="C220" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D220" s="2" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
+      <c r="H220" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B221" s="12"/>
+      <c r="C221" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="9"/>
-      <c r="H221" s="9"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="9" t="s">
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+      <c r="G222" s="16"/>
+      <c r="H222" s="16"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B222" s="9"/>
-      <c r="C222" s="1" t="s">
+      <c r="B223" s="16"/>
+      <c r="C223" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F222" s="9" t="s">
+      <c r="F223" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G222" s="9"/>
-      <c r="H222" s="9"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B223" s="8"/>
-      <c r="C223" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F223" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
+      <c r="G223" s="16"/>
+      <c r="H223" s="16"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B224" s="8"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E224" s="3"/>
-      <c r="F224" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
+      <c r="A224" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B224" s="11"/>
+      <c r="C224" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
+      <c r="A225" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B225" s="11"/>
       <c r="C225" s="4"/>
-      <c r="D225" s="3"/>
+      <c r="D225" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E225" s="3"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
+      <c r="F225" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
+      <c r="A226" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B226" s="11"/>
       <c r="C226" s="4"/>
-      <c r="D226" s="3"/>
+      <c r="D226" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E226" s="3"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
+      <c r="F226" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G226" s="11"/>
+      <c r="H226" s="11"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="13"/>
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="23"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B228" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
-      <c r="H228" s="10"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="14" t="s">
+      <c r="B229" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B229" s="14"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="14"/>
-      <c r="H229" s="14"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="9" t="s">
+      <c r="B230" s="17"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="9"/>
-      <c r="C230" s="1" t="s">
+      <c r="B231" s="16"/>
+      <c r="C231" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="F231" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G231" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B231" s="10"/>
-      <c r="C231" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F231" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B232" s="10"/>
+      <c r="A232" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B232" s="12"/>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D232" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D232" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="2"/>
       <c r="H232" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B233" s="10"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B233" s="12"/>
       <c r="C233" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
-      <c r="G233" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G233" s="2"/>
       <c r="H233" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B234" s="10"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B234" s="12"/>
       <c r="C234" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B235" s="10"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B235" s="12"/>
       <c r="C235" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>234</v>
+        <v>146</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
-      <c r="G235" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G235" s="2"/>
       <c r="H235" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B236" s="10"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B236" s="12"/>
       <c r="C236" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B237" s="16"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
+      <c r="G237" s="16"/>
+      <c r="H237" s="16"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B238" s="16"/>
+      <c r="C238" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" s="16"/>
+      <c r="H238" s="16"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B239" s="11"/>
+      <c r="C239" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B240" s="11"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240" s="3"/>
+      <c r="F240" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B237" s="10"/>
-      <c r="C237" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="9"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B239" s="9"/>
-      <c r="C239" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B240" s="8"/>
-      <c r="C240" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F240" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B241" s="8"/>
+      <c r="A241" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B241" s="11"/>
       <c r="C241" s="4"/>
       <c r="D241" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E241" s="3"/>
-      <c r="F241" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G241" s="8"/>
-      <c r="H241" s="8"/>
+      <c r="E241" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B242" s="8"/>
+      <c r="A242" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B242" s="11"/>
       <c r="C242" s="4"/>
       <c r="D242" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E242" s="3"/>
-      <c r="F242" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B243" s="8"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E243" s="3"/>
-      <c r="F243" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G243" s="8"/>
-      <c r="H243" s="8"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B244" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="12"/>
-      <c r="G244" s="12"/>
-      <c r="H244" s="13"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10"/>
-      <c r="E245" s="10"/>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
-      <c r="H245" s="10"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B246" s="14"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
-      <c r="E246" s="14"/>
-      <c r="F246" s="14"/>
-      <c r="G246" s="14"/>
-      <c r="H246" s="14"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B247" s="9"/>
-      <c r="C247" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H247" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B248" s="10"/>
-      <c r="C248" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F248" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B249" s="10"/>
-      <c r="C249" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D249" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
-      <c r="B250" s="10"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E250" s="2"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
-      <c r="B251" s="10"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="10"/>
-      <c r="B252" s="10"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E252" s="2"/>
-      <c r="F252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
-      <c r="B253" s="10"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B254" s="9"/>
-      <c r="C254" s="9"/>
-      <c r="D254" s="9"/>
-      <c r="E254" s="9"/>
-      <c r="F254" s="9"/>
-      <c r="G254" s="9"/>
-      <c r="H254" s="9"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B255" s="9"/>
-      <c r="C255" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" s="9"/>
-      <c r="H255" s="9"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B256" s="8"/>
-      <c r="C256" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F256" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G256" s="8"/>
-      <c r="H256" s="8"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B257" s="8"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E257" s="3"/>
-      <c r="F257" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G257" s="8"/>
-      <c r="H257" s="8"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
-      <c r="H258" s="8"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
-      <c r="H259" s="8"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B260" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
-      <c r="E260" s="12"/>
-      <c r="F260" s="12"/>
-      <c r="G260" s="12"/>
-      <c r="H260" s="13"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B261" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10"/>
-      <c r="H261" s="10"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B262" s="14"/>
-      <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
-      <c r="E262" s="14"/>
-      <c r="F262" s="14"/>
-      <c r="G262" s="14"/>
-      <c r="H262" s="14"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B263" s="9"/>
-      <c r="C263" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B264" s="10"/>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F264" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B265" s="10"/>
-      <c r="C265" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B266" s="10"/>
-      <c r="C266" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D266" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B267" s="10"/>
-      <c r="C267" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D267" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B268" s="10"/>
-      <c r="C268" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B269" s="10"/>
-      <c r="C269" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B270" s="9"/>
-      <c r="C270" s="9"/>
-      <c r="D270" s="9"/>
-      <c r="E270" s="9"/>
-      <c r="F270" s="9"/>
-      <c r="G270" s="9"/>
-      <c r="H270" s="9"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B271" s="9"/>
-      <c r="C271" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" s="9"/>
-      <c r="H271" s="9"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B272" s="8"/>
-      <c r="C272" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F272" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G272" s="8"/>
-      <c r="H272" s="8"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B273" s="8"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E273" s="3"/>
-      <c r="F273" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G273" s="8"/>
-      <c r="H273" s="8"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B274" s="8"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F274" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G274" s="8"/>
-      <c r="H274" s="8"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B275" s="8"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E275" s="3"/>
-      <c r="F275" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G275" s="8"/>
-      <c r="H275" s="8"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B276" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
-      <c r="E276" s="12"/>
-      <c r="F276" s="12"/>
-      <c r="G276" s="12"/>
-      <c r="H276" s="13"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10"/>
-      <c r="E277" s="10"/>
-      <c r="F277" s="10"/>
-      <c r="G277" s="10"/>
-      <c r="H277" s="10"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B278" s="14"/>
-      <c r="C278" s="14"/>
-      <c r="D278" s="14"/>
-      <c r="E278" s="14"/>
-      <c r="F278" s="14"/>
-      <c r="G278" s="14"/>
-      <c r="H278" s="14"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B279" s="9"/>
-      <c r="C279" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B280" s="10"/>
-      <c r="C280" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D280" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B281" s="10"/>
-      <c r="C281" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E281" s="2"/>
-      <c r="F281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B282" s="10"/>
-      <c r="C282" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="10"/>
-      <c r="B283" s="10"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="10"/>
-      <c r="B284" s="10"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="10"/>
-      <c r="B285" s="10"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E285" s="2"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9"/>
-      <c r="D286" s="9"/>
-      <c r="E286" s="9"/>
-      <c r="F286" s="9"/>
-      <c r="G286" s="9"/>
-      <c r="H286" s="9"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B287" s="9"/>
-      <c r="C287" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F287" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G287" s="9"/>
-      <c r="H287" s="9"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B288" s="8"/>
-      <c r="C288" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F288" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G288" s="8"/>
-      <c r="H288" s="8"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B289" s="8"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E289" s="3"/>
-      <c r="F289" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G289" s="8"/>
-      <c r="H289" s="8"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B290" s="8"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E290" s="3"/>
-      <c r="F290" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="G290" s="8"/>
-      <c r="H290" s="8"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="8"/>
-      <c r="G291" s="8"/>
-      <c r="H291" s="8"/>
+      <c r="F242" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="381">
+  <mergeCells count="317">
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="F240:H240"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="F241:H241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="F242:H242"/>
+    <mergeCell ref="A237:H237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="F238:H238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="F239:H239"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="B228:H228"/>
+    <mergeCell ref="B229:H229"/>
+    <mergeCell ref="A230:H230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="F225:H225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="F226:H226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="F227:H227"/>
+    <mergeCell ref="A222:H222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="F223:H223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="F224:H224"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="B211:H211"/>
+    <mergeCell ref="B212:H212"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="F208:H208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="F209:H209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="F210:H210"/>
+    <mergeCell ref="A205:H205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="F206:H206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="F207:H207"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="B195:H195"/>
+    <mergeCell ref="B196:H196"/>
+    <mergeCell ref="A197:H197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="A189:H189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="F190:H190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="F191:H191"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="B179:H179"/>
+    <mergeCell ref="B180:H180"/>
+    <mergeCell ref="A181:H181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="F177:H177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="F178:H178"/>
+    <mergeCell ref="A173:H173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="A157:H157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="A149:H149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="A141:H141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B132:H132"/>
+    <mergeCell ref="A133:H133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="A125:H125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="B115:H115"/>
+    <mergeCell ref="B116:H116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="A109:H109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B100:H100"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="F50:H50"/>
-    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A221:B221"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="A45:H45"/>
@@ -5980,364 +5430,7 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="A33:B33"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="B99:H99"/>
-    <mergeCell ref="B100:H100"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="A109:H109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="B115:H115"/>
-    <mergeCell ref="B116:H116"/>
-    <mergeCell ref="A117:H117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="A125:H125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B132:H132"/>
-    <mergeCell ref="A133:H133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="A141:H141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="A149:H149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="A157:H157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="A165:H165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="F177:H177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="F178:H178"/>
-    <mergeCell ref="A173:H173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="B179:H179"/>
-    <mergeCell ref="B180:H180"/>
-    <mergeCell ref="A181:H181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="F192:H192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="F193:H193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="A189:H189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="F190:H190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="F191:H191"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="B195:H195"/>
-    <mergeCell ref="B196:H196"/>
-    <mergeCell ref="A197:H197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="F208:H208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="F209:H209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="F210:H210"/>
-    <mergeCell ref="A205:H205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="F206:H206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="F207:H207"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="B211:H211"/>
-    <mergeCell ref="B212:H212"/>
-    <mergeCell ref="A213:H213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="F224:H224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="F225:H225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="F226:H226"/>
-    <mergeCell ref="A221:H221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="F222:H222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="F223:H223"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="B227:H227"/>
-    <mergeCell ref="B228:H228"/>
-    <mergeCell ref="A229:H229"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="F241:H241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="F242:H242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="F243:H243"/>
-    <mergeCell ref="A238:H238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="F239:H239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="F240:H240"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="B244:H244"/>
-    <mergeCell ref="B245:H245"/>
-    <mergeCell ref="A246:H246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="F257:H257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="A254:H254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="F255:H255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="F256:H256"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="B260:H260"/>
-    <mergeCell ref="B261:H261"/>
-    <mergeCell ref="A262:H262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="F273:H273"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="F274:H274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="F275:H275"/>
-    <mergeCell ref="A270:H270"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="F271:H271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="F272:H272"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="B276:H276"/>
-    <mergeCell ref="B277:H277"/>
-    <mergeCell ref="A278:H278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="F289:H289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="F290:H290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="F291:H291"/>
-    <mergeCell ref="A286:H286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="F287:H287"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="F288:H288"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
